--- a/TEMOA_Europe_Results/5_Results_nze_ct+_nuc+/_3_Electricity.xlsx
+++ b/TEMOA_Europe_Results/5_Results_nze_ct+_nuc+/_3_Electricity.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://politoit-my.sharepoint.com/personal/matteo_nicoli_polito_it/Documents/Politecnico/MAHTEP - Energy system models/Models/TEMOA_Europe/GitHub/TEMOA_Europe_Results/5_Results_nze_ct+_nuc+/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_8EAE016F6870F7A64687A22C8633FCCAF45C10C7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E545EA91-DDF3-4D60-9D6E-32259F805446}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Output" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -188,8 +194,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,13 +258,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -296,7 +310,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -330,6 +344,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -364,9 +379,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -539,14 +555,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,14 +603,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -640,19 +656,19 @@
         <v>51</v>
       </c>
       <c r="D2">
-        <v>1966.812946642336</v>
+        <v>1966.8129466423361</v>
       </c>
       <c r="E2">
         <v>1966.812946642335</v>
       </c>
       <c r="F2">
-        <v>874.1022335999999</v>
+        <v>874.10223359999986</v>
       </c>
       <c r="G2">
-        <v>582.7348224</v>
+        <v>582.73482239999998</v>
       </c>
       <c r="H2">
-        <v>291.3674111999998</v>
+        <v>291.36741119999982</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -667,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -684,13 +700,13 @@
         <v>179.5203567080116</v>
       </c>
       <c r="F3">
-        <v>130.4145208800001</v>
+        <v>130.41452088000011</v>
       </c>
       <c r="G3">
-        <v>86.94301392000001</v>
+        <v>86.943013920000013</v>
       </c>
       <c r="H3">
-        <v>43.47150696</v>
+        <v>43.471506959999999</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -705,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -716,16 +732,16 @@
         <v>51</v>
       </c>
       <c r="D4">
-        <v>900.8789719023723</v>
+        <v>900.87897190237231</v>
       </c>
       <c r="E4">
         <v>954.1266966496537</v>
       </c>
       <c r="F4">
-        <v>691.5532455200001</v>
+        <v>691.55324552000013</v>
       </c>
       <c r="G4">
-        <v>53.9869536661225</v>
+        <v>53.986953666122503</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -743,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -757,13 +773,13 @@
         <v>1941.31571508</v>
       </c>
       <c r="E5">
-        <v>817.3960905599998</v>
+        <v>817.39609055999983</v>
       </c>
       <c r="F5">
-        <v>613.04706792</v>
+        <v>613.04706792000002</v>
       </c>
       <c r="G5">
-        <v>408.69804528</v>
+        <v>408.69804527999997</v>
       </c>
       <c r="H5">
         <v>204.3490226399999</v>
@@ -781,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -792,19 +808,19 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>597.2161249999996</v>
+        <v>597.21612499999958</v>
       </c>
       <c r="E6">
-        <v>307.630284</v>
+        <v>307.63028400000002</v>
       </c>
       <c r="F6">
-        <v>316.0493041932424</v>
+        <v>316.04930419324239</v>
       </c>
       <c r="G6">
-        <v>153.815142</v>
+        <v>153.81514200000001</v>
       </c>
       <c r="H6">
-        <v>76.907571</v>
+        <v>76.907571000000004</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -819,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -830,13 +846,13 @@
         <v>51</v>
       </c>
       <c r="D7">
-        <v>545.3581599199999</v>
+        <v>545.35815991999993</v>
       </c>
       <c r="E7">
-        <v>984.0236254400003</v>
+        <v>984.02362544000027</v>
       </c>
       <c r="F7">
-        <v>1690.273627886757</v>
+        <v>1690.2736278867569</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -857,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -877,13 +893,13 @@
         <v>121.7100384</v>
       </c>
       <c r="G8">
-        <v>91.28252879999999</v>
+        <v>91.282528799999994</v>
       </c>
       <c r="H8">
-        <v>60.8550192</v>
+        <v>60.855019200000001</v>
       </c>
       <c r="I8">
-        <v>30.42750960000001</v>
+        <v>30.427509600000011</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -895,7 +911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -906,10 +922,10 @@
         <v>51</v>
       </c>
       <c r="D9">
-        <v>53.99728512499998</v>
+        <v>53.997285124999983</v>
       </c>
       <c r="E9">
-        <v>41.49229519999999</v>
+        <v>41.492295199999987</v>
       </c>
       <c r="F9">
         <v>31.11922139999999</v>
@@ -933,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -947,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.710740200000001</v>
+        <v>7.7107402000000009</v>
       </c>
       <c r="F10">
-        <v>7.710740200000002</v>
+        <v>7.7107402000000018</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -971,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -985,19 +1001,19 @@
         <v>1242.886443518757</v>
       </c>
       <c r="E11">
-        <v>821.7447113039423</v>
+        <v>821.74471130394227</v>
       </c>
       <c r="F11">
-        <v>782.3598002197716</v>
+        <v>782.35980021977161</v>
       </c>
       <c r="G11">
-        <v>6.919485253428576</v>
+        <v>6.9194852534285758</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1939769706857142</v>
+        <v>0.19397697068571421</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1009,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1020,25 +1036,25 @@
         <v>52</v>
       </c>
       <c r="D12">
-        <v>655.7242274586039</v>
+        <v>655.72422745860388</v>
       </c>
       <c r="E12">
-        <v>784.4765618997259</v>
+        <v>784.47656189972588</v>
       </c>
       <c r="F12">
-        <v>605.7304682497715</v>
+        <v>605.73046824977155</v>
       </c>
       <c r="G12">
-        <v>1057.577611561101</v>
+        <v>1057.5776115611011</v>
       </c>
       <c r="H12">
-        <v>823.6079696563544</v>
+        <v>823.60796965635438</v>
       </c>
       <c r="I12">
-        <v>552.8027956822172</v>
+        <v>552.80279568221715</v>
       </c>
       <c r="J12">
-        <v>277.6180536939087</v>
+        <v>277.61805369390868</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1047,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1058,7 +1074,7 @@
         <v>52</v>
       </c>
       <c r="D13">
-        <v>26.7602001758</v>
+        <v>26.760200175800001</v>
       </c>
       <c r="E13">
         <v>43.2</v>
@@ -1067,25 +1083,25 @@
         <v>43.2</v>
       </c>
       <c r="G13">
-        <v>26.7602001758</v>
+        <v>26.760200175800001</v>
       </c>
       <c r="H13">
-        <v>37.19564503199999</v>
+        <v>37.195645031999987</v>
       </c>
       <c r="I13">
         <v>29.7565160256</v>
       </c>
       <c r="J13">
-        <v>29.55958777638667</v>
+        <v>29.559587776386671</v>
       </c>
       <c r="K13">
-        <v>29.55958777638667</v>
+        <v>29.559587776386671</v>
       </c>
       <c r="L13">
-        <v>15.2472624278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>15.247262427800001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1099,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>149.0279618476007</v>
+        <v>149.02796184760069</v>
       </c>
       <c r="F14">
-        <v>231.7242520380356</v>
+        <v>231.72425203803559</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1123,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1140,19 +1156,19 @@
         <v>196.4679812348914</v>
       </c>
       <c r="F15">
-        <v>398.9826441497829</v>
+        <v>398.98264414978291</v>
       </c>
       <c r="G15">
-        <v>1010.071930158832</v>
+        <v>1010.0719301588319</v>
       </c>
       <c r="H15">
         <v>1338.720166728411</v>
       </c>
       <c r="I15">
-        <v>1206.675407580529</v>
+        <v>1206.6754075805291</v>
       </c>
       <c r="J15">
-        <v>1320.403468695163</v>
+        <v>1320.4034686951629</v>
       </c>
       <c r="K15">
         <v>1182.11981619111</v>
@@ -1161,7 +1177,7 @@
         <v>1917.874906943495</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,13 +1188,13 @@
         <v>51</v>
       </c>
       <c r="D16">
-        <v>140.1085261699199</v>
+        <v>140.10852616991991</v>
       </c>
       <c r="E16">
-        <v>79.04801366351992</v>
+        <v>79.048013663519924</v>
       </c>
       <c r="F16">
-        <v>97.5645589723199</v>
+        <v>97.564558972319901</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1199,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1210,13 +1226,13 @@
         <v>52</v>
       </c>
       <c r="D17">
-        <v>50.06080285271996</v>
+        <v>50.060802852719959</v>
       </c>
       <c r="E17">
-        <v>92.60477005031991</v>
+        <v>92.604770050319914</v>
       </c>
       <c r="F17">
-        <v>114.6482763703199</v>
+        <v>114.64827637031991</v>
       </c>
       <c r="G17">
         <v>193.6962900338398</v>
@@ -1228,16 +1244,16 @@
         <v>193.6962900338398</v>
       </c>
       <c r="J17">
-        <v>205.5675908946398</v>
+        <v>205.56759089463981</v>
       </c>
       <c r="K17">
-        <v>212.2128353426398</v>
+        <v>212.21283534263981</v>
       </c>
       <c r="L17">
         <v>213.0972118826104</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1248,7 +1264,7 @@
         <v>52</v>
       </c>
       <c r="D18">
-        <v>16.4397998242</v>
+        <v>16.439799824200001</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1257,25 +1273,25 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>16.4397998242</v>
+        <v>16.439799824200001</v>
       </c>
       <c r="H18">
-        <v>6.004354968000057</v>
+        <v>6.0043549680000572</v>
       </c>
       <c r="I18">
-        <v>13.4434839744</v>
+        <v>13.443483974399999</v>
       </c>
       <c r="J18">
-        <v>13.64041222361334</v>
+        <v>13.640412223613341</v>
       </c>
       <c r="K18">
-        <v>13.64041222361334</v>
+        <v>13.640412223613341</v>
       </c>
       <c r="L18">
         <v>27.9527375722</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1289,13 +1305,13 @@
         <v>3212.26157332</v>
       </c>
       <c r="E19">
-        <v>2509.125632000001</v>
+        <v>2509.1256320000011</v>
       </c>
       <c r="F19">
         <v>2101.599200000001</v>
       </c>
       <c r="G19">
-        <v>2149.08925824</v>
+        <v>2149.0892582400002</v>
       </c>
       <c r="H19">
         <v>1790.9077152</v>
@@ -1304,16 +1320,16 @@
         <v>1432.72617216</v>
       </c>
       <c r="J19">
-        <v>1074.54462912</v>
+        <v>1074.5446291200001</v>
       </c>
       <c r="K19">
-        <v>716.3630860800001</v>
+        <v>716.36308608000013</v>
       </c>
       <c r="L19">
-        <v>358.1815430400003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>358.18154304000029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1324,13 +1340,13 @@
         <v>51</v>
       </c>
       <c r="D20">
-        <v>85.6184266800001</v>
+        <v>85.618426680000098</v>
       </c>
       <c r="E20">
-        <v>561.9843679999993</v>
+        <v>561.98436799999934</v>
       </c>
       <c r="F20">
-        <v>525.3907999999998</v>
+        <v>525.39079999999979</v>
       </c>
       <c r="G20">
         <v>683.1684151199986</v>
@@ -1339,19 +1355,19 @@
         <v>683.1684151200011</v>
       </c>
       <c r="I20">
-        <v>683.16841512</v>
+        <v>683.16841511999996</v>
       </c>
       <c r="J20">
-        <v>683.1684151199977</v>
+        <v>683.16841511999769</v>
       </c>
       <c r="K20">
-        <v>683.1684151199987</v>
+        <v>683.16841511999871</v>
       </c>
       <c r="L20">
-        <v>683.1684151200012</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>683.16841512000121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1374,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>686.9558974799997</v>
+        <v>686.95589747999975</v>
       </c>
       <c r="I21">
-        <v>1394.55210696</v>
+        <v>1394.5521069599999</v>
       </c>
       <c r="J21">
         <v>2135.11920444</v>
@@ -1389,7 +1405,7 @@
         <v>2911.60580592</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1400,19 +1416,19 @@
         <v>51</v>
       </c>
       <c r="D22">
-        <v>56.26885848802009</v>
+        <v>56.268858488020093</v>
       </c>
       <c r="E22">
         <v>31.397926496</v>
       </c>
       <c r="F22">
-        <v>34.77111158478407</v>
+        <v>34.771111584784073</v>
       </c>
       <c r="G22">
         <v>15.698963248</v>
       </c>
       <c r="H22">
-        <v>7.849481623999999</v>
+        <v>7.8494816239999992</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1427,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1438,19 +1454,19 @@
         <v>51</v>
       </c>
       <c r="D23">
-        <v>109.90296</v>
+        <v>109.90295999999999</v>
       </c>
       <c r="E23">
-        <v>87.92236800000001</v>
+        <v>87.922368000000006</v>
       </c>
       <c r="F23">
-        <v>65.941776</v>
+        <v>65.941776000000004</v>
       </c>
       <c r="G23">
-        <v>43.961184</v>
+        <v>43.961184000000003</v>
       </c>
       <c r="H23">
-        <v>21.980592</v>
+        <v>21.980592000000001</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1465,7 +1481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1476,7 +1492,7 @@
         <v>53</v>
       </c>
       <c r="D24">
-        <v>39.23318151197992</v>
+        <v>39.233181511979922</v>
       </c>
       <c r="E24">
         <v>16.09723375253958</v>
@@ -1503,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1517,22 +1533,22 @@
         <v>181.755</v>
       </c>
       <c r="E25">
-        <v>435.9724717514598</v>
+        <v>435.97247175145981</v>
       </c>
       <c r="F25">
-        <v>484.0761936489014</v>
+        <v>484.07619364890138</v>
       </c>
       <c r="G25">
-        <v>619.8933382148829</v>
+        <v>619.89333821488287</v>
       </c>
       <c r="H25">
-        <v>399.1771823790218</v>
+        <v>399.17718237902181</v>
       </c>
       <c r="I25">
-        <v>297.1931192449521</v>
+        <v>297.19311924495207</v>
       </c>
       <c r="J25">
-        <v>85.79847786209508</v>
+        <v>85.798477862095083</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1558,19 +1574,19 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>65.92091876631466</v>
+        <v>65.920918766314657</v>
       </c>
       <c r="G26">
         <v>119.8954701579478</v>
       </c>
       <c r="H26">
-        <v>21.73375269369762</v>
+        <v>21.733752693697621</v>
       </c>
       <c r="I26">
-        <v>50.04920790553717</v>
+        <v>50.049207905537173</v>
       </c>
       <c r="J26">
-        <v>45.33862316897186</v>
+        <v>45.338623168971857</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1579,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1596,16 +1612,16 @@
         <v>163.92</v>
       </c>
       <c r="F27">
-        <v>186.2400000000001</v>
+        <v>186.24000000000009</v>
       </c>
       <c r="G27">
-        <v>47.63771415189101</v>
+        <v>47.637714151891011</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>32.63080109926753</v>
+        <v>32.630801099267529</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1617,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1628,7 +1644,7 @@
         <v>51</v>
       </c>
       <c r="D28">
-        <v>3.197683</v>
+        <v>3.1976830000000001</v>
       </c>
       <c r="E28">
         <v>2.5581464</v>
@@ -1640,7 +1656,7 @@
         <v>1.2790732</v>
       </c>
       <c r="H28">
-        <v>0.6395366</v>
+        <v>0.63953660000000001</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1655,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1669,22 +1685,22 @@
         <v>21.712536</v>
       </c>
       <c r="E29">
-        <v>18.61074514285714</v>
+        <v>18.610745142857141</v>
       </c>
       <c r="F29">
-        <v>15.50895428571429</v>
+        <v>15.508954285714291</v>
       </c>
       <c r="G29">
         <v>12.40716342857143</v>
       </c>
       <c r="H29">
-        <v>9.30537257142857</v>
+        <v>9.3053725714285704</v>
       </c>
       <c r="I29">
-        <v>6.203581714285715</v>
+        <v>6.2035817142857148</v>
       </c>
       <c r="J29">
-        <v>3.101790857142856</v>
+        <v>3.1017908571428561</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -1693,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1704,25 +1720,25 @@
         <v>51</v>
       </c>
       <c r="D30">
-        <v>13.739781</v>
+        <v>13.739781000000001</v>
       </c>
       <c r="E30">
-        <v>32.98110845714285</v>
+        <v>32.981108457142852</v>
       </c>
       <c r="F30">
-        <v>63.97243591428573</v>
+        <v>63.972435914285732</v>
       </c>
       <c r="G30">
         <v>64.857095807175</v>
       </c>
       <c r="H30">
-        <v>32.81255230312552</v>
+        <v>32.812552303125521</v>
       </c>
       <c r="I30">
-        <v>24.525792532125</v>
+        <v>24.525792532124999</v>
       </c>
       <c r="J30">
-        <v>24.525792532125</v>
+        <v>24.525792532124999</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -1731,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1742,7 +1758,7 @@
         <v>51</v>
       </c>
       <c r="D31">
-        <v>550.0799999999999</v>
+        <v>550.07999999999993</v>
       </c>
       <c r="E31">
         <v>983.02</v>
@@ -1751,25 +1767,25 @@
         <v>1530.69</v>
       </c>
       <c r="G31">
-        <v>2462.682205496297</v>
+        <v>2462.6822054962968</v>
       </c>
       <c r="H31">
         <v>1922.297015456227</v>
       </c>
       <c r="I31">
-        <v>405.9019186120801</v>
+        <v>405.90191861208012</v>
       </c>
       <c r="J31">
-        <v>126.5624530602042</v>
+        <v>126.56245306020421</v>
       </c>
       <c r="K31">
-        <v>651.0482175272506</v>
+        <v>651.04821752725059</v>
       </c>
       <c r="L31">
-        <v>268.1074885541516</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>268.10748855415159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1789,13 +1805,13 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>25.68877306681121</v>
+        <v>25.688773066811208</v>
       </c>
       <c r="H32">
-        <v>1096.104591026469</v>
+        <v>1096.1045910264691</v>
       </c>
       <c r="I32">
-        <v>2719.1088818604</v>
+        <v>2719.1088818603998</v>
       </c>
       <c r="J32">
         <v>3092.179733020916</v>
@@ -1807,7 +1823,7 @@
         <v>3348.748241375039</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1827,7 +1843,7 @@
         <v>259.57</v>
       </c>
       <c r="G33">
-        <v>912.1391210591233</v>
+        <v>912.13912105912334</v>
       </c>
       <c r="H33">
         <v>1018.772484888699</v>
@@ -1842,10 +1858,10 @@
         <v>2395.541999965677</v>
       </c>
       <c r="L33">
-        <v>1810.565505930177</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>1810.5655059301771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1865,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>58.68241051281046</v>
+        <v>58.682410512810463</v>
       </c>
       <c r="H34">
         <v>1090.746200820585</v>
@@ -1874,16 +1890,16 @@
         <v>2612.181468521459</v>
       </c>
       <c r="J34">
-        <v>4864.599812481235</v>
+        <v>4864.5998124812349</v>
       </c>
       <c r="K34">
-        <v>7080.965146200604</v>
+        <v>7080.9651462006041</v>
       </c>
       <c r="L34">
-        <v>9437.200745970549</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>9437.2007459705492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1897,31 +1913,31 @@
         <v>164.23</v>
       </c>
       <c r="E35">
-        <v>361.6799999999999</v>
+        <v>361.67999999999989</v>
       </c>
       <c r="F35">
-        <v>583.6799999999998</v>
+        <v>583.67999999999984</v>
       </c>
       <c r="G35">
         <v>1383.56672176392</v>
       </c>
       <c r="H35">
-        <v>2068.90631082</v>
+        <v>2068.9063108199998</v>
       </c>
       <c r="I35">
-        <v>2861.260616137761</v>
+        <v>2861.2606161377612</v>
       </c>
       <c r="J35">
-        <v>1696.70097576</v>
+        <v>1696.7009757599999</v>
       </c>
       <c r="K35">
-        <v>244.453290768</v>
+        <v>244.45329076799999</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1947,19 +1963,19 @@
         <v>241.876799568</v>
       </c>
       <c r="I36">
-        <v>522.7481161196471</v>
+        <v>522.74811611964708</v>
       </c>
       <c r="J36">
-        <v>2610.052600894821</v>
+        <v>2610.0526008948209</v>
       </c>
       <c r="K36">
-        <v>5112.158216087639</v>
+        <v>5112.1582160876387</v>
       </c>
       <c r="L36">
-        <v>4080.800575574952</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
+        <v>4080.8005755749518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1973,19 +1989,19 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>8.09006786162837</v>
+        <v>8.0900678616283699</v>
       </c>
       <c r="F37">
-        <v>8.164349677006228</v>
+        <v>8.1643496770062285</v>
       </c>
       <c r="G37">
-        <v>8.09006786162837</v>
+        <v>8.0900678616283699</v>
       </c>
       <c r="H37">
-        <v>8.546669501860245</v>
+        <v>8.5466695018602454</v>
       </c>
       <c r="I37">
-        <v>8.09006786162837</v>
+        <v>8.0900678616283699</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -1997,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2011,31 +2027,31 @@
         <v>2.74</v>
       </c>
       <c r="E38">
-        <v>12.03993213837163</v>
+        <v>12.039932138371629</v>
       </c>
       <c r="F38">
-        <v>12.29565032299377</v>
+        <v>12.295650322993771</v>
       </c>
       <c r="G38">
-        <v>12.43663516459378</v>
+        <v>12.436635164593779</v>
       </c>
       <c r="H38">
         <v>12.27928313899378</v>
       </c>
       <c r="I38">
-        <v>12.83620932126112</v>
+        <v>12.836209321261119</v>
       </c>
       <c r="J38">
-        <v>12.48928328701026</v>
+        <v>12.489283287010259</v>
       </c>
       <c r="K38">
-        <v>12.52791296298964</v>
+        <v>12.527912962989641</v>
       </c>
       <c r="L38">
         <v>0.3791489745678262</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2058,22 +2074,22 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.3084283871999982</v>
+        <v>0.30842838719999821</v>
       </c>
       <c r="I39">
-        <v>0.002661638399999944</v>
+        <v>2.6616383999999442E-3</v>
       </c>
       <c r="J39">
         <v>0.1032173279999994</v>
       </c>
       <c r="K39">
-        <v>0.06925936319753698</v>
+        <v>6.9259363197536977E-2</v>
       </c>
       <c r="L39">
-        <v>0.3123010079999979</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12">
+        <v>0.31230100799999788</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2093,25 +2109,25 @@
         <v>1.85</v>
       </c>
       <c r="G40">
-        <v>8.007621120000001</v>
+        <v>8.0076211200000014</v>
       </c>
       <c r="H40">
-        <v>9.247364352000002</v>
+        <v>9.2473643520000017</v>
       </c>
       <c r="I40">
-        <v>9.063446400000002</v>
+        <v>9.0634464000000019</v>
       </c>
       <c r="J40">
-        <v>8.459216639999999</v>
+        <v>8.4592166399999993</v>
       </c>
       <c r="K40">
-        <v>8.459216639999999</v>
+        <v>8.4592166399999993</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2134,10 +2150,10 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.6149520000000132</v>
+        <v>0.61495200000001315</v>
       </c>
       <c r="I41">
-        <v>4.099680000000007</v>
+        <v>4.0996800000000073</v>
       </c>
       <c r="J41">
         <v>25.41801599999993</v>
@@ -2146,10 +2162,10 @@
         <v>158.247648</v>
       </c>
       <c r="L41">
-        <v>933.087168</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>933.08716800000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2178,16 +2194,16 @@
         <v>111.6355128024906</v>
       </c>
       <c r="J42">
-        <v>618.2616580668343</v>
+        <v>618.26165806683434</v>
       </c>
       <c r="K42">
-        <v>1272.89529432</v>
+        <v>1272.8952943199999</v>
       </c>
       <c r="L42">
-        <v>1941.084851099757</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
+        <v>1941.0848510997571</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2204,28 +2220,28 @@
         <v>27.17</v>
       </c>
       <c r="F43">
-        <v>29.26000000000001</v>
+        <v>29.260000000000009</v>
       </c>
       <c r="G43">
-        <v>26.657317728</v>
+        <v>26.657317727999999</v>
       </c>
       <c r="H43">
         <v>74.29004899200001</v>
       </c>
       <c r="I43">
-        <v>49.38411456000001</v>
+        <v>49.384114560000008</v>
       </c>
       <c r="J43">
-        <v>46.28176056</v>
+        <v>46.281760560000002</v>
       </c>
       <c r="K43">
-        <v>57.20898456</v>
+        <v>57.208984559999998</v>
       </c>
       <c r="L43">
-        <v>68.13620856000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
+        <v>68.136208560000014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2239,31 +2255,31 @@
         <v>185</v>
       </c>
       <c r="E44">
-        <v>190.475</v>
+        <v>190.47499999999999</v>
       </c>
       <c r="F44">
         <v>205.2</v>
       </c>
       <c r="G44">
-        <v>77.65733692800001</v>
+        <v>77.657336928000007</v>
       </c>
       <c r="H44">
-        <v>212.4532259136</v>
+        <v>212.45322591359999</v>
       </c>
       <c r="I44">
         <v>100.385426736</v>
       </c>
       <c r="J44">
-        <v>130.914103824</v>
+        <v>130.91410382399999</v>
       </c>
       <c r="K44">
-        <v>161.442780912</v>
+        <v>161.44278091199999</v>
       </c>
       <c r="L44">
-        <v>191.971458</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>191.97145800000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2280,7 +2296,7 @@
         <v>126.825</v>
       </c>
       <c r="F45">
-        <v>136.8</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -2301,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2312,34 +2328,34 @@
         <v>55</v>
       </c>
       <c r="D46">
-        <v>37.525</v>
+        <v>37.524999999999999</v>
       </c>
       <c r="E46">
         <v>46.8825</v>
       </c>
       <c r="F46">
-        <v>56.23999999999999</v>
+        <v>56.239999999999988</v>
       </c>
       <c r="G46">
-        <v>86.01349392</v>
+        <v>86.013493920000002</v>
       </c>
       <c r="H46">
         <v>138.51967248</v>
       </c>
       <c r="I46">
-        <v>62.73271727673308</v>
+        <v>62.732717276733077</v>
       </c>
       <c r="J46">
-        <v>49.5201924</v>
+        <v>49.520192399999999</v>
       </c>
       <c r="K46">
-        <v>51.5069604</v>
+        <v>51.506960399999997</v>
       </c>
       <c r="L46">
-        <v>53.49372840000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>53.493728400000009</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
